--- a/2.Excel/hands-on/6.Funcoes_Mercado/12.INDIRETO/1.INDIRETO.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/12.INDIRETO/1.INDIRETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\12.INDIRETO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845D0218-19AB-4438-999C-067C5BA19A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7563CE-E8D6-47D0-8E04-C0B40D5AF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="48" windowWidth="10800" windowHeight="12792" tabRatio="801" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
+    <workbookView xWindow="12348" yWindow="48" windowWidth="10800" windowHeight="12792" tabRatio="801" activeTab="1" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Análise20" sheetId="22" r:id="rId1"/>
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,42 +656,42 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDIRECT($B$3&amp;"!E2")</f>
-        <v>202885</v>
+        <v>-1398487</v>
       </c>
       <c r="D3" s="10" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDIRECT($B$3&amp;"!F2")</f>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDIRECT($B$3&amp;"!G2")</f>
-        <v>99829</v>
+        <v>99073</v>
       </c>
       <c r="F3" s="9" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDIRECT($B$3&amp;"!H2")</f>
-        <v>112054</v>
+        <v>105458</v>
       </c>
       <c r="G3" s="16">
         <f ca="1">SUM(INDIRECT(B3&amp;"!C:C"))</f>
-        <v>5962641</v>
+        <v>5018307</v>
       </c>
       <c r="H3" s="17">
         <f ca="1">COUNTIF(INDIRECT(B3&amp;"!B:B"),"Entrada")</f>
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I3" s="17">
         <f ca="1">COUNTIF(INDIRECT(B3&amp;"!B:B"),"Saída")</f>
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6150131-BDC2-49F3-A5BC-C2C89FDF8DF2}">
           <x14:formula1>
             <xm:f>Resumo20!$A$2:$A$13</xm:f>
@@ -6319,7 +6319,9 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6366,7 +6368,7 @@
         <v>202885</v>
       </c>
       <c r="C2" s="8" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(A2&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(A2&amp;"!f2")</f>
         <v>103</v>
       </c>
       <c r="D2" s="7" cm="1">
@@ -6399,7 +6401,7 @@
         <v>819286</v>
       </c>
       <c r="C3" s="8" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(A3&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(A3&amp;"!f2")</f>
         <v>101</v>
       </c>
       <c r="D3" s="7" cm="1">
@@ -6432,7 +6434,7 @@
         <v>753647</v>
       </c>
       <c r="C4" s="8" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(A4&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(A4&amp;"!f2")</f>
         <v>96</v>
       </c>
       <c r="D4" s="7" cm="1">
@@ -6465,7 +6467,7 @@
         <v>-1398487</v>
       </c>
       <c r="C5" s="8" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(A5&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(A5&amp;"!f2")</f>
         <v>94</v>
       </c>
       <c r="D5" s="7" cm="1">
@@ -6498,7 +6500,7 @@
         <v>-839756</v>
       </c>
       <c r="C6" s="8" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(A6&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(A6&amp;"!f2")</f>
         <v>90</v>
       </c>
       <c r="D6" s="7" cm="1">
@@ -6531,7 +6533,7 @@
         <v>89789</v>
       </c>
       <c r="C7" s="8" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(A7&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(A7&amp;"!f2")</f>
         <v>89</v>
       </c>
       <c r="D7" s="7" cm="1">
@@ -6564,7 +6566,7 @@
         <v>-372515</v>
       </c>
       <c r="C8" s="8" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(A8&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(A8&amp;"!f2")</f>
         <v>90</v>
       </c>
       <c r="D8" s="7" cm="1">
@@ -6597,7 +6599,7 @@
         <v>-238264</v>
       </c>
       <c r="C9" s="8" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">INDIRECT(A9&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C9" ca="1">INDIRECT(A9&amp;"!f2")</f>
         <v>102</v>
       </c>
       <c r="D9" s="7" cm="1">
@@ -6630,7 +6632,7 @@
         <v>-12655</v>
       </c>
       <c r="C10" s="8" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">INDIRECT(A10&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C10" ca="1">INDIRECT(A10&amp;"!f2")</f>
         <v>92</v>
       </c>
       <c r="D10" s="7" cm="1">
@@ -6663,7 +6665,7 @@
         <v>84116</v>
       </c>
       <c r="C11" s="8" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">INDIRECT(A11&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C11" ca="1">INDIRECT(A11&amp;"!f2")</f>
         <v>95</v>
       </c>
       <c r="D11" s="7" cm="1">
@@ -6696,7 +6698,7 @@
         <v>334624</v>
       </c>
       <c r="C12" s="8" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">INDIRECT(A12&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C12" ca="1">INDIRECT(A12&amp;"!f2")</f>
         <v>100</v>
       </c>
       <c r="D12" s="7" cm="1">
@@ -6729,7 +6731,7 @@
         <v>234679</v>
       </c>
       <c r="C13" s="8" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">INDIRECT(A13&amp;"!F2")</f>
+        <f t="array" aca="1" ref="C13" ca="1">INDIRECT(A13&amp;"!f2")</f>
         <v>93</v>
       </c>
       <c r="D13" s="7" cm="1">
@@ -6767,7 +6769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0B826C-80E9-416D-A8B4-CE382D7F27E8}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
